--- a/4_aviation/regulation/data/data.xlsx
+++ b/4_aviation/regulation/data/data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/regulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B641BE5D-9F36-6049-8B50-D7526FA9325B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475440BC-FFB6-5C4F-AEE8-9BB087816865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{36F7A449-4735-054F-8F1D-9427CF7AA583}"/>
+    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{36F7A449-4735-054F-8F1D-9427CF7AA583}"/>
   </bookViews>
   <sheets>
     <sheet name="ReFuelEU" sheetId="1" r:id="rId1"/>
+    <sheet name="EU Production" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>year</t>
   </si>
@@ -51,6 +52,36 @@
   </si>
   <si>
     <t>of which synth-fuel share [%]</t>
+  </si>
+  <si>
+    <t>domestic aviation consumption, EU 27 [t(oil equivalent)]</t>
+  </si>
+  <si>
+    <t>metric</t>
+  </si>
+  <si>
+    <t>2019 (=pre-COVID)</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>all biofuels production, EU 27 [t(oil equivalent)]</t>
+  </si>
+  <si>
+    <t>3.1.4 EU-27</t>
+  </si>
+  <si>
+    <t>3.1.7 Biofuels Production</t>
+  </si>
+  <si>
+    <t>bio jet fuel, EU 27 [t(oil equivalent)]</t>
+  </si>
+  <si>
+    <t>source table</t>
+  </si>
+  <si>
+    <t>https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2023_en</t>
   </si>
 </sst>
 </file>
@@ -415,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40BF3AA0-991E-B044-B0F0-5296643951AF}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -531,4 +562,98 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231BA2F2-7AA5-594C-A41D-B0149A89F2B5}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <f>6.6*10000000</f>
+        <v>66000000</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>2021</v>
+      </c>
+      <c r="C3">
+        <f>15960*10000</f>
+        <v>159600000</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>2021</v>
+      </c>
+      <c r="C4">
+        <f>91.6*10000</f>
+        <v>916000</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{4EFC0B31-D21D-2946-AD6E-95F4C7346B61}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{FA8B13A8-DC65-044E-B591-8E3DA3ECA370}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{EA97976A-9629-8A4F-93E8-328DD54649F1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4_aviation/regulation/data/data.xlsx
+++ b/4_aviation/regulation/data/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/regulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475440BC-FFB6-5C4F-AEE8-9BB087816865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D13CA83-92B1-0A47-92DB-601530DA2BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{36F7A449-4735-054F-8F1D-9427CF7AA583}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="2" xr2:uid="{36F7A449-4735-054F-8F1D-9427CF7AA583}"/>
   </bookViews>
   <sheets>
     <sheet name="ReFuelEU" sheetId="1" r:id="rId1"/>
     <sheet name="EU Production" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t>year</t>
   </si>
@@ -82,13 +83,70 @@
   </si>
   <si>
     <t>https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2023_en</t>
+  </si>
+  <si>
+    <t>EU domestic aviation consumption [Mt(oil)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2023_en </t>
+  </si>
+  <si>
+    <t>source location</t>
+  </si>
+  <si>
+    <t>table 3.1.4</t>
+  </si>
+  <si>
+    <t>table 3.1.7</t>
+  </si>
+  <si>
+    <t>EU biofuel production [kt(oil)]</t>
+  </si>
+  <si>
+    <t>of which aviation fuel [kt(oil)]</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2020_en</t>
+  </si>
+  <si>
+    <t>https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2022_en</t>
+  </si>
+  <si>
+    <t>https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2021_en</t>
+  </si>
+  <si>
+    <t>https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2019_en</t>
+  </si>
+  <si>
+    <t>https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2018_en</t>
+  </si>
+  <si>
+    <t>https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2017_en</t>
+  </si>
+  <si>
+    <t>https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2016_en</t>
+  </si>
+  <si>
+    <t>https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2015_en</t>
+  </si>
+  <si>
+    <t>https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2014_en</t>
+  </si>
+  <si>
+    <t>https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2013_en</t>
+  </si>
+  <si>
+    <t>https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2012_en</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +158,12 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -568,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231BA2F2-7AA5-594C-A41D-B0149A89F2B5}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,4 +720,371 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DD8234-C5B3-354C-B6C8-ECACE524FB48}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>5.6443549999999991</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>12939</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>5.9985520000000001</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>11455.221883535391</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>5.5564970000000002</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>11532.454</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>5.1924210000000004</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>12841.095824973727</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>5.2138879999999999</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>13889.486003630458</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>5.4155190000000006</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>13660.767173019967</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>5.7370649999999994</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>13772</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>5.9991560000000002</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>15104.22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>6.2635249999999996</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>15339.476000000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>6.5022000000000002</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>15846.252</v>
+      </c>
+      <c r="F11">
+        <v>24.706</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>3.026634</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>15526.566000000001</v>
+      </c>
+      <c r="F12">
+        <v>45.295000000000002</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>4.3224320000000001</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>15960.335999999999</v>
+      </c>
+      <c r="F13">
+        <v>91.619</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{11668CB7-7BCE-D044-8460-65D5D6625984}"/>
+    <hyperlink ref="C3:C13" r:id="rId2" display="https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2023_en " xr:uid="{59A54F77-820D-AA43-8F40-2FF2F909BA17}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4_aviation/regulation/data/data.xlsx
+++ b/4_aviation/regulation/data/data.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/regulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D13CA83-92B1-0A47-92DB-601530DA2BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C0DF9B-4B88-0C4D-AC19-3A388A857459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="2" xr2:uid="{36F7A449-4735-054F-8F1D-9427CF7AA583}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="17280" windowHeight="21580" activeTab="1" xr2:uid="{36F7A449-4735-054F-8F1D-9427CF7AA583}"/>
   </bookViews>
   <sheets>
     <sheet name="ReFuelEU" sheetId="1" r:id="rId1"/>
-    <sheet name="EU Production" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="EU Production" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
   <si>
     <t>year</t>
   </si>
@@ -53,36 +52,6 @@
   </si>
   <si>
     <t>of which synth-fuel share [%]</t>
-  </si>
-  <si>
-    <t>domestic aviation consumption, EU 27 [t(oil equivalent)]</t>
-  </si>
-  <si>
-    <t>metric</t>
-  </si>
-  <si>
-    <t>2019 (=pre-COVID)</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>all biofuels production, EU 27 [t(oil equivalent)]</t>
-  </si>
-  <si>
-    <t>3.1.4 EU-27</t>
-  </si>
-  <si>
-    <t>3.1.7 Biofuels Production</t>
-  </si>
-  <si>
-    <t>bio jet fuel, EU 27 [t(oil equivalent)]</t>
-  </si>
-  <si>
-    <t>source table</t>
-  </si>
-  <si>
-    <t>https://transport.ec.europa.eu/facts-funding/studies-data/eu-transport-figures-statistical-pocketbook/statistical-pocketbook-2023_en</t>
   </si>
   <si>
     <t>EU domestic aviation consumption [Mt(oil)]</t>
@@ -629,105 +598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231BA2F2-7AA5-594C-A41D-B0149A89F2B5}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="48.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <f>6.6*10000000</f>
-        <v>66000000</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2021</v>
-      </c>
-      <c r="C3">
-        <f>15960*10000</f>
-        <v>159600000</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>2021</v>
-      </c>
-      <c r="C4">
-        <f>91.6*10000</f>
-        <v>916000</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{4EFC0B31-D21D-2946-AD6E-95F4C7346B61}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{FA8B13A8-DC65-044E-B591-8E3DA3ECA370}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{EA97976A-9629-8A4F-93E8-328DD54649F1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DD8234-C5B3-354C-B6C8-ECACE524FB48}">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -746,25 +621,25 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -775,22 +650,22 @@
         <v>5.6443549999999991</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>12939</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -801,22 +676,22 @@
         <v>5.9985520000000001</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>11455.221883535391</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -827,22 +702,22 @@
         <v>5.5564970000000002</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>11532.454</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -853,22 +728,22 @@
         <v>5.1924210000000004</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>12841.095824973727</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -879,22 +754,22 @@
         <v>5.2138879999999999</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E6">
         <v>13889.486003630458</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -905,22 +780,22 @@
         <v>5.4155190000000006</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>13660.767173019967</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -931,22 +806,22 @@
         <v>5.7370649999999994</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>13772</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -957,22 +832,22 @@
         <v>5.9991560000000002</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>15104.22</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -983,22 +858,22 @@
         <v>6.2635249999999996</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>15339.476000000001</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1009,10 +884,10 @@
         <v>6.5022000000000002</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>15846.252</v>
@@ -1021,10 +896,10 @@
         <v>24.706</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1035,10 +910,10 @@
         <v>3.026634</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>15526.566000000001</v>
@@ -1047,10 +922,10 @@
         <v>45.295000000000002</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1061,10 +936,10 @@
         <v>4.3224320000000001</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>15960.335999999999</v>
@@ -1073,10 +948,10 @@
         <v>91.619</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
